--- a/biology/Botanique/Gand/Gand..xlsx
+++ b/biology/Botanique/Gand/Gand..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Michel Gandoger (Arnas, 10 mai 1850 - Arnas, 4 octobre 1926[1]), dit l'abbé Michel Gandoger, est un prêtre catholique, médecin et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Michel Gandoger (Arnas, 10 mai 1850 - Arnas, 4 octobre 1926), dit l'abbé Michel Gandoger, est un prêtre catholique, médecin et botaniste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un riche propriétaire de vignobles dans le Beaujolais, il étudie la médecine et connaît huit langues étrangères.
 Il entre à 26 ans dans les ordres et devient spécialiste du genre Rosa (espèces "gandogeriennes").
@@ -546,12 +560,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1875 – Flore lyonnaise et des départements du sud-est, comprenant l'analyse des plantes spontanées et des plantes cultivées comme industrielles ou ornementales. Paris, Lyon (Lecoffre fils et Cie). [I]-VII, [I]-LIV, [1]-322.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1875 – Flore lyonnaise et des départements du sud-est, comprenant l'analyse des plantes spontanées et des plantes cultivées comme industrielles ou ornementales. Paris, Lyon (Lecoffre fils et Cie). [I]-VII, [I]-LIV, -322.
 1876 - Essai sur une nouvelle classification des Roses de l'Europe, de l'Orient et du Bassin méditerranéen.. Bulletin de la Société agricole, scientifique et littéraire des Pyrénées-Orientales, 22 : 376-415. Version numérisée sur Gallica.
 1876 - Decades plantarum novarum praesertim ad floram europae spectantes. Deuxième partie publiée dans le Bulletin de la Société agricole, scientifique et littéraire des Pyrénées-Orientales, 22 : 416-459. Version numérisée sur Gallica.
-1882 – Revue du genre Polygonum. Paris, F. Savy : [1]-66.
+1882 – Revue du genre Polygonum. Paris, F. Savy : -66.
 1883-1891 – Flora europaea en 27 volumes.
 1884 – Herborisations dans les Pyrénées. Paris, F. Savy, Londres, R. Quaritch, Berlin, Friedland : 74 pp.
 Monographie mondiale des Crucifères en 3 volumes (25 000 espèces).</t>
@@ -582,7 +598,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>François Pellegrin (1954). Un siècle de Société de botanique de France. Bulletin de la Société botanique de France, supplément au no 101 : 17-46.</t>
         </is>
